--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3511.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3511.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.458567743966525</v>
+        <v>2.127973556518555</v>
       </c>
       <c r="B1">
-        <v>2.800385908602559</v>
+        <v>2.882835388183594</v>
       </c>
       <c r="C1">
-        <v>3.677993711364568</v>
+        <v>2.224223136901855</v>
       </c>
       <c r="D1">
-        <v>3.789332756057501</v>
+        <v>2.079066276550293</v>
       </c>
       <c r="E1">
-        <v>1.193569109704873</v>
+        <v>2.085942268371582</v>
       </c>
     </row>
   </sheetData>
